--- a/results/accel-glmm-results/habitat-season/np/glmm_multi_comp_hab_within_season_np.xlsx
+++ b/results/accel-glmm-results/habitat-season/np/glmm_multi_comp_hab_within_season_np.xlsx
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.93775378606958</v>
+        <v>0.937753785958414</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0118179857098814</v>
+        <v>0.0118179857101166</v>
       </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.09963572528435</v>
+        <v>-5.09963573398489</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0000646584772983042</v>
+        <v>0.0000330098526823834</v>
       </c>
     </row>
     <row r="3">
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.04224748585701</v>
+        <v>1.04224748581956</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0111770234315551</v>
+        <v>0.0111770234331982</v>
       </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
@@ -517,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85859459892965</v>
+        <v>3.85859459487315</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0216677758639958</v>
+        <v>0.00912327419939958</v>
       </c>
     </row>
     <row r="4">
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.829302360204375</v>
+        <v>0.829302359624809</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0415215513090939</v>
+        <v>0.0415215512289751</v>
       </c>
       <c r="I4" t="e">
         <v>#NUM!</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>-3.73832144022024</v>
+        <v>-3.73832145877925</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0351980692328214</v>
+        <v>0.0144497326185885</v>
       </c>
     </row>
     <row r="5">
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.23795953828702</v>
+        <v>1.23795953810776</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0847759792731208</v>
+        <v>0.0847759793025511</v>
       </c>
       <c r="I5" t="e">
         <v>#NUM!</v>
@@ -593,10 +593,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1171613054724</v>
+        <v>3.11716130182433</v>
       </c>
       <c r="L5" t="n">
-        <v>0.346943098656549</v>
+        <v>0.116865045204198</v>
       </c>
     </row>
     <row r="6">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.864338299938296</v>
+        <v>0.864338299303187</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0428303619699033</v>
+        <v>0.042830361884512</v>
       </c>
       <c r="I6" t="e">
         <v>#NUM!</v>
@@ -631,10 +631,10 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>-2.94213661458467</v>
+        <v>-2.94213663311706</v>
       </c>
       <c r="L6" t="n">
-        <v>0.619316576777142</v>
+        <v>0.202092765590335</v>
       </c>
     </row>
     <row r="7">
@@ -648,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.841907553213883</v>
+        <v>0.977371525732932</v>
       </c>
       <c r="H7" t="n">
-        <v>0.057306636697159</v>
+        <v>0.00878259303611696</v>
       </c>
       <c r="I7" t="e">
         <v>#NUM!</v>
@@ -669,10 +669,10 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>-2.52814899654463</v>
+        <v>-2.54714034420563</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0.629936513244212</v>
       </c>
     </row>
     <row r="8">
@@ -686,7 +686,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -695,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.977371525883914</v>
+        <v>0.841907553305544</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00878259303601416</v>
+        <v>0.0573066367318588</v>
       </c>
       <c r="I8" t="e">
         <v>#NUM!</v>
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>-2.5471403274379</v>
+        <v>-2.52814899368957</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0.653594372101185</v>
       </c>
     </row>
     <row r="9">
@@ -718,13 +718,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.02664276693894</v>
+        <v>1.13077428886452</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0861607699802072</v>
+        <v>0.0565624507389612</v>
       </c>
       <c r="I9" t="e">
         <v>#NUM!</v>
@@ -745,10 +745,10 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.313304706840399</v>
+        <v>2.4570206735131</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0.784529896527367</v>
       </c>
     </row>
     <row r="10">
@@ -762,7 +762,7 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.1609012440296</v>
+        <v>1.0266427660728</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0793471022254742</v>
+        <v>0.086160769897687</v>
       </c>
       <c r="I10" t="e">
         <v>#NUM!</v>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.18284672994443</v>
+        <v>0.313304696823504</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -809,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.13077428820832</v>
+        <v>1.16090124372388</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0565624507759755</v>
+        <v>0.0793471022436747</v>
       </c>
       <c r="I11" t="e">
         <v>#NUM!</v>
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>2.45702065887797</v>
+        <v>2.18284672501589</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.744691004337424</v>
+        <v>0.744691004084207</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0110447884577216</v>
+        <v>0.0110447884547377</v>
       </c>
       <c r="I12" t="e">
         <v>#NUM!</v>
@@ -859,10 +859,10 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>-19.8758367516616</v>
+        <v>-19.8758367731994</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000125169929561896</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000121217142922633</v>
       </c>
     </row>
     <row r="13">
@@ -885,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.48278350539421</v>
+        <v>1.48278350641426</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0361323552880455</v>
+        <v>0.036132355290167</v>
       </c>
       <c r="I13" t="e">
         <v>#NUM!</v>
@@ -897,10 +897,10 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>16.1655573739247</v>
+        <v>16.1655574123271</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000167648898678457</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000156178087235447</v>
       </c>
     </row>
     <row r="14">
@@ -923,10 +923,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.85147860085513</v>
+        <v>0.851478600656257</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00972293892863333</v>
+        <v>0.00972293892610806</v>
       </c>
       <c r="I14" t="e">
         <v>#NUM!</v>
@@ -935,10 +935,10 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>-14.080259637589</v>
+        <v>-14.0802596584114</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0000000000000000000000000000000000000000009542735959389</v>
+        <v>0.000000000000000000000000000000000000000000843778509896012</v>
       </c>
     </row>
     <row r="15">
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.771116300822353</v>
+        <v>0.771116300373981</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0174390091504003</v>
+        <v>0.0174390091270184</v>
       </c>
       <c r="I15" t="e">
         <v>#NUM!</v>
@@ -973,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>-11.4929419871717</v>
+        <v>-11.4929420216095</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00000000000000000000000000027198913614925</v>
+        <v>0.000000000000000000000000000214728179759406</v>
       </c>
     </row>
     <row r="16">
@@ -999,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.85946922035744</v>
+        <v>0.859469220379683</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0125064298555448</v>
+        <v>0.0125064298533088</v>
       </c>
       <c r="I16" t="e">
         <v>#NUM!</v>
@@ -1011,10 +1011,10 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>-10.4073063831722</v>
+        <v>-10.4073063835237</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0000000000000000000000436291358329392</v>
+        <v>0.0000000000000000000000321477841792895</v>
       </c>
     </row>
     <row r="17">
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.28476449382068</v>
+        <v>1.2847644942344</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0310480636190931</v>
+        <v>0.0310480636061752</v>
       </c>
       <c r="I17" t="e">
         <v>#NUM!</v>
@@ -1049,10 +1049,10 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>10.3687758824826</v>
+        <v>10.3687759034605</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000000000000000000000065341343747362</v>
+        <v>0.0000000000000000000000478023409856087</v>
       </c>
     </row>
     <row r="18">
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.14339853159999</v>
+        <v>1.14339853172172</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0151058660985049</v>
+        <v>0.0151058661032615</v>
       </c>
       <c r="I18" t="e">
         <v>#NUM!</v>
@@ -1087,10 +1087,10 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>10.1431532760091</v>
+        <v>10.1431532819539</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000000000000000000000675330832180824</v>
+        <v>0.000000000000000000000483394671503195</v>
       </c>
     </row>
     <row r="19">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.15412864577589</v>
+        <v>1.1541286461982</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0177709591073212</v>
+        <v>0.017770959113091</v>
       </c>
       <c r="I19" t="e">
         <v>#NUM!</v>
@@ -1125,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>9.30953182599405</v>
+        <v>9.30953185014183</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00000000000000000243954395922462</v>
+        <v>0.00000000000000000165632157471205</v>
       </c>
     </row>
     <row r="20">
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.10421553784698</v>
+        <v>1.10421553823113</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0255819596784079</v>
+        <v>0.0255819596676837</v>
       </c>
       <c r="I20" t="e">
         <v>#NUM!</v>
@@ -1163,10 +1163,10 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>4.27905398949059</v>
+        <v>4.27905400778957</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00356609738583648</v>
+        <v>0.00170797281807653</v>
       </c>
     </row>
     <row r="21">
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.990702843902907</v>
+        <v>0.990702843645877</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0127719719412049</v>
+        <v>0.0127719719361084</v>
       </c>
       <c r="I21" t="e">
         <v>#NUM!</v>
@@ -1201,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.724539876949536</v>
+        <v>-0.724539897175246</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.47635304238481</v>
+        <v>1.47635304284155</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0514087534896862</v>
+        <v>0.0514087535023429</v>
       </c>
       <c r="I22" t="e">
         <v>#NUM!</v>
@@ -1239,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>11.1877847528649</v>
+        <v>11.1877847624563</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00000000000000000000000000889160986115512</v>
+        <v>0.0000000000000000000000000068792974117305</v>
       </c>
     </row>
     <row r="23">
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.725718872791283</v>
+        <v>0.725718872460619</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0243419256656132</v>
+        <v>0.0243419256527408</v>
       </c>
       <c r="I23" t="e">
         <v>#NUM!</v>
@@ -1277,10 +1277,10 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>-9.55799797163781</v>
+        <v>-9.55799798592138</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000000000000000000228107504885434</v>
+        <v>0.000000000000000000158474665737375</v>
       </c>
     </row>
     <row r="24">
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.35362656737277</v>
+        <v>1.35362656765584</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0447220510843597</v>
+        <v>0.0447220510891911</v>
       </c>
       <c r="I24" t="e">
         <v>#NUM!</v>
@@ -1315,10 +1315,10 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>9.16462848903703</v>
+        <v>9.16462849629289</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00000000000000000944640675503974</v>
+        <v>0.0000000000000000063638946489731</v>
       </c>
     </row>
     <row r="25">
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.32171445598882</v>
+        <v>1.32171445651235</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0454382526381122</v>
+        <v>0.0454382526534183</v>
       </c>
       <c r="I25" t="e">
         <v>#NUM!</v>
@@ -1353,10 +1353,10 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>8.11354810538624</v>
+        <v>8.11354811738862</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0000000000000934091671961045</v>
+        <v>0.0000000000000585036305152175</v>
       </c>
     </row>
     <row r="26">
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.11699848306516</v>
+        <v>1.11699848296829</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0161001595754369</v>
+        <v>0.0161001595803721</v>
       </c>
       <c r="I26" t="e">
         <v>#NUM!</v>
@@ -1391,10 +1391,10 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>7.67635113060812</v>
+        <v>7.67635112157279</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00000000000310999741995036</v>
+        <v>0.00000000000189873540077491</v>
       </c>
     </row>
     <row r="27">
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.916871865002025</v>
+        <v>0.9168718649101</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0116492671675842</v>
+        <v>0.0116492671697121</v>
       </c>
       <c r="I27" t="e">
         <v>#NUM!</v>
@@ -1429,10 +1429,10 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>-6.83073544896895</v>
+        <v>-6.83073545492741</v>
       </c>
       <c r="L27" t="n">
-        <v>0.00000000160512760330511</v>
+        <v>0.000000000887044164979536</v>
       </c>
     </row>
     <row r="28">
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.07141726576148</v>
+        <v>1.07141726560478</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0145591916598677</v>
+        <v>0.0145591916633741</v>
       </c>
       <c r="I28" t="e">
         <v>#NUM!</v>
@@ -1467,10 +1467,10 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>5.07643898403175</v>
+        <v>5.07643897130334</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0000730691012776521</v>
+        <v>0.000036919127328089</v>
       </c>
     </row>
     <row r="29">
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.959193125152153</v>
+        <v>0.959193125095044</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0118101094238831</v>
+        <v>0.0118101094290708</v>
       </c>
       <c r="I29" t="e">
         <v>#NUM!</v>
@@ -1505,10 +1505,10 @@
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>-3.38377154100114</v>
+        <v>-3.38377154414893</v>
       </c>
       <c r="L29" t="n">
-        <v>0.13584519022202</v>
+        <v>0.0493332527255936</v>
       </c>
     </row>
     <row r="30">
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.982352346654101</v>
+        <v>0.982352346411932</v>
       </c>
       <c r="H30" t="n">
-        <v>0.00848986885813077</v>
+        <v>0.00848986886056728</v>
       </c>
       <c r="I30" t="e">
         <v>#NUM!</v>
@@ -1543,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>-2.06022137732545</v>
+        <v>-2.06022140475075</v>
       </c>
       <c r="L30" t="n">
         <v>1</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.02414448237238</v>
+        <v>1.02414448218089</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0116939121323254</v>
+        <v>0.0116939121348173</v>
       </c>
       <c r="I31" t="e">
         <v>#NUM!</v>
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>2.08943270348953</v>
+        <v>2.08943268627799</v>
       </c>
       <c r="L31" t="n">
         <v>1</v>
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.12465028609559</v>
+        <v>1.12465028522679</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0175786935519506</v>
+        <v>0.0175786935438224</v>
       </c>
       <c r="I32" t="e">
         <v>#NUM!</v>
@@ -1619,10 +1619,10 @@
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>7.51563617708098</v>
+        <v>7.51563612532647</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0000000000107606215654965</v>
+        <v>0.00000000000645637549363058</v>
       </c>
     </row>
     <row r="33">
@@ -1645,10 +1645,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.896352630386689</v>
+        <v>0.896352630794693</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0130612106985937</v>
+        <v>0.0130612107098371</v>
       </c>
       <c r="I33" t="e">
         <v>#NUM!</v>
@@ -1657,10 +1657,10 @@
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>-7.50926897177791</v>
+        <v>-7.50926893749397</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0000000000112971053208077</v>
+        <v>0.00000000000671880650283911</v>
       </c>
     </row>
     <row r="34">
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.890148521665198</v>
+        <v>0.890148522155623</v>
       </c>
       <c r="H34" t="n">
-        <v>0.013858332870827</v>
+        <v>0.0138583328828509</v>
       </c>
       <c r="I34" t="e">
         <v>#NUM!</v>
@@ -1695,10 +1695,10 @@
         <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>-7.47448276590789</v>
+        <v>-7.47448272815231</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0000000000147265396050819</v>
+        <v>0.00000000000868091004886681</v>
       </c>
     </row>
     <row r="35">
@@ -1721,10 +1721,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.12664712807473</v>
+        <v>1.12664712780148</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0333002801136878</v>
+        <v>0.0333002800967375</v>
       </c>
       <c r="I35" t="e">
         <v>#NUM!</v>
@@ -1733,10 +1733,10 @@
         <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>4.03444810907661</v>
+        <v>4.03444810194608</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0103988487698778</v>
+        <v>0.00459738591154588</v>
       </c>
     </row>
     <row r="36">
@@ -1759,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.12540266955382</v>
+        <v>1.12540266953022</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0333318443395515</v>
+        <v>0.0333318443299396</v>
       </c>
       <c r="I36" t="e">
         <v>#NUM!</v>
@@ -1771,10 +1771,10 @@
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>3.98886071259959</v>
+        <v>3.98886071295817</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0126143638849019</v>
+        <v>0.00544409387893987</v>
       </c>
     </row>
     <row r="37">
@@ -1797,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.894763956776411</v>
+        <v>0.894763956709487</v>
       </c>
       <c r="H37" t="n">
-        <v>0.026033538651148</v>
+        <v>0.0260335386423453</v>
       </c>
       <c r="I37" t="e">
         <v>#NUM!</v>
@@ -1809,10 +1809,10 @@
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>-3.8217460798328</v>
+        <v>-3.82174608340985</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0251769179779736</v>
+        <v>0.0104682973231737</v>
       </c>
     </row>
     <row r="38">
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.00696974557671</v>
+        <v>1.00696974548028</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00748040531665032</v>
+        <v>0.00748040531428786</v>
       </c>
       <c r="I38" t="e">
         <v>#NUM!</v>
@@ -1847,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>0.934973136420876</v>
+        <v>0.934973123735247</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
@@ -1873,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.00808324220693</v>
+        <v>1.00808324188703</v>
       </c>
       <c r="H39" t="n">
-        <v>0.00638072911593352</v>
+        <v>0.00638072911190895</v>
       </c>
       <c r="I39" t="e">
         <v>#NUM!</v>
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>1.27192735985294</v>
+        <v>1.27192731011726</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
@@ -1911,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.0017755225814</v>
+        <v>1.00177552311232</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0323473072296324</v>
+        <v>0.0323473072425048</v>
       </c>
       <c r="I40" t="e">
         <v>#NUM!</v>
@@ -1923,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0549380471439428</v>
+        <v>0.0549380635642719</v>
       </c>
       <c r="L40" t="n">
         <v>1</v>
@@ -1949,10 +1949,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.00110578955834</v>
+        <v>1.00110578933653</v>
       </c>
       <c r="H41" t="n">
-        <v>0.00932674689251537</v>
+        <v>0.00932674688805125</v>
       </c>
       <c r="I41" t="e">
         <v>#NUM!</v>
@@ -1961,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>0.118626647761462</v>
+        <v>0.118626624010014</v>
       </c>
       <c r="L41" t="n">
         <v>1</v>
